--- a/data-dir/kakao-stock-processed2.xlsx
+++ b/data-dir/kakao-stock-processed2.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55500</v>
+        <v>0.0994234985943323</v>
       </c>
       <c r="D2" t="n">
-        <v>58200</v>
+        <v>1.476056556054318</v>
       </c>
       <c r="E2" t="n">
-        <v>55500</v>
+        <v>0.0994234985943323</v>
       </c>
       <c r="F2" t="n">
-        <v>57900</v>
+        <v>1.323097327447653</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57900</v>
+        <v>1.323097327447653</v>
       </c>
       <c r="D3" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
       <c r="E3" t="n">
-        <v>57500</v>
+        <v>1.119151689305433</v>
       </c>
       <c r="F3" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
       <c r="D4" t="n">
-        <v>58700</v>
+        <v>1.730988603732093</v>
       </c>
       <c r="E4" t="n">
-        <v>57200</v>
+        <v>0.9661924606987677</v>
       </c>
       <c r="F4" t="n">
-        <v>58200</v>
+        <v>1.476056556054318</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
       <c r="D5" t="n">
-        <v>58400</v>
+        <v>1.578029375125428</v>
       </c>
       <c r="E5" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
       <c r="F5" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
       <c r="D6" t="n">
-        <v>59600</v>
+        <v>2.189866289552088</v>
       </c>
       <c r="E6" t="n">
-        <v>57800</v>
+        <v>1.272110917912098</v>
       </c>
       <c r="F6" t="n">
-        <v>58200</v>
+        <v>1.476056556054318</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58200</v>
+        <v>1.476056556054318</v>
       </c>
       <c r="D7" t="n">
-        <v>58400</v>
+        <v>1.578029375125428</v>
       </c>
       <c r="E7" t="n">
-        <v>57700</v>
+        <v>1.221124508376543</v>
       </c>
       <c r="F7" t="n">
-        <v>58100</v>
+        <v>1.425070146518763</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58200</v>
+        <v>1.476056556054318</v>
       </c>
       <c r="D8" t="n">
-        <v>59500</v>
+        <v>2.138879880016534</v>
       </c>
       <c r="E8" t="n">
-        <v>58200</v>
+        <v>1.476056556054318</v>
       </c>
       <c r="F8" t="n">
-        <v>58400</v>
+        <v>1.578029375125428</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>58500</v>
+        <v>1.629015784660983</v>
       </c>
       <c r="D9" t="n">
-        <v>58700</v>
+        <v>1.730988603732093</v>
       </c>
       <c r="E9" t="n">
-        <v>58300</v>
+        <v>1.527042965589873</v>
       </c>
       <c r="F9" t="n">
-        <v>58600</v>
+        <v>1.680002194196538</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>58700</v>
+        <v>1.730988603732093</v>
       </c>
       <c r="D10" t="n">
-        <v>58700</v>
+        <v>1.730988603732093</v>
       </c>
       <c r="E10" t="n">
-        <v>55300</v>
+        <v>-0.002549320476777751</v>
       </c>
       <c r="F10" t="n">
-        <v>55600</v>
+        <v>0.1504099081298873</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>55600</v>
+        <v>0.1504099081298873</v>
       </c>
       <c r="D11" t="n">
-        <v>55800</v>
+        <v>0.2523827272009974</v>
       </c>
       <c r="E11" t="n">
-        <v>55300</v>
+        <v>-0.002549320476777751</v>
       </c>
       <c r="F11" t="n">
-        <v>55300</v>
+        <v>-0.002549320476777751</v>
       </c>
     </row>
     <row r="12">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55300</v>
+        <v>-0.002549320476777751</v>
       </c>
       <c r="D12" t="n">
-        <v>55300</v>
+        <v>-0.002549320476777751</v>
       </c>
       <c r="E12" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
       <c r="F12" t="n">
-        <v>54400</v>
+        <v>-0.461427006296773</v>
       </c>
     </row>
     <row r="13">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54500</v>
+        <v>-0.410440596761218</v>
       </c>
       <c r="D13" t="n">
-        <v>54600</v>
+        <v>-0.359454187225663</v>
       </c>
       <c r="E13" t="n">
-        <v>54100</v>
+        <v>-0.6143862349034381</v>
       </c>
       <c r="F13" t="n">
-        <v>54300</v>
+        <v>-0.512413415832328</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>54400</v>
+        <v>-0.461427006296773</v>
       </c>
       <c r="D14" t="n">
-        <v>56300</v>
+        <v>0.5073147748787725</v>
       </c>
       <c r="E14" t="n">
-        <v>53900</v>
+        <v>-0.7163590539745481</v>
       </c>
       <c r="F14" t="n">
-        <v>55400</v>
+        <v>0.04843708905877728</v>
       </c>
     </row>
     <row r="15">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55500</v>
+        <v>0.0994234985943323</v>
       </c>
       <c r="D15" t="n">
-        <v>55900</v>
+        <v>0.3033691367365524</v>
       </c>
       <c r="E15" t="n">
-        <v>55500</v>
+        <v>0.0994234985943323</v>
       </c>
       <c r="F15" t="n">
-        <v>55700</v>
+        <v>0.2013963176654424</v>
       </c>
     </row>
     <row r="16">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55800</v>
+        <v>0.2523827272009974</v>
       </c>
       <c r="D16" t="n">
-        <v>55800</v>
+        <v>0.2523827272009974</v>
       </c>
       <c r="E16" t="n">
-        <v>54500</v>
+        <v>-0.410440596761218</v>
       </c>
       <c r="F16" t="n">
-        <v>54700</v>
+        <v>-0.3084677776901079</v>
       </c>
     </row>
     <row r="17">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54700</v>
+        <v>-0.3084677776901079</v>
       </c>
       <c r="D17" t="n">
-        <v>54700</v>
+        <v>-0.3084677776901079</v>
       </c>
       <c r="E17" t="n">
-        <v>53900</v>
+        <v>-0.7163590539745481</v>
       </c>
       <c r="F17" t="n">
-        <v>54300</v>
+        <v>-0.512413415832328</v>
       </c>
     </row>
     <row r="18">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54300</v>
+        <v>-0.512413415832328</v>
       </c>
       <c r="D18" t="n">
-        <v>55200</v>
+        <v>-0.05353573001233278</v>
       </c>
       <c r="E18" t="n">
-        <v>53700</v>
+        <v>-0.8183318730456582</v>
       </c>
       <c r="F18" t="n">
-        <v>54400</v>
+        <v>-0.461427006296773</v>
       </c>
     </row>
     <row r="19">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>54500</v>
+        <v>-0.410440596761218</v>
       </c>
       <c r="D19" t="n">
-        <v>54500</v>
+        <v>-0.410440596761218</v>
       </c>
       <c r="E19" t="n">
-        <v>54000</v>
+        <v>-0.6653726444389931</v>
       </c>
       <c r="F19" t="n">
-        <v>54200</v>
+        <v>-0.563399825367883</v>
       </c>
     </row>
     <row r="20">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>55000</v>
+        <v>-0.1555085490834428</v>
       </c>
       <c r="D20" t="n">
-        <v>55700</v>
+        <v>0.2013963176654424</v>
       </c>
       <c r="E20" t="n">
-        <v>54100</v>
+        <v>-0.6143862349034381</v>
       </c>
       <c r="F20" t="n">
-        <v>55000</v>
+        <v>-0.1555085490834428</v>
       </c>
     </row>
     <row r="21">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55000</v>
+        <v>-0.1555085490834428</v>
       </c>
       <c r="D21" t="n">
-        <v>55200</v>
+        <v>-0.05353573001233278</v>
       </c>
       <c r="E21" t="n">
-        <v>54900</v>
+        <v>-0.2064949586189979</v>
       </c>
       <c r="F21" t="n">
-        <v>55100</v>
+        <v>-0.1045221395478878</v>
       </c>
     </row>
     <row r="22">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55100</v>
+        <v>-0.1045221395478878</v>
       </c>
       <c r="D22" t="n">
-        <v>55100</v>
+        <v>-0.1045221395478878</v>
       </c>
       <c r="E22" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
       <c r="F22" t="n">
-        <v>53500</v>
+        <v>-0.9203046921167682</v>
       </c>
     </row>
     <row r="23">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53500</v>
+        <v>-0.9203046921167682</v>
       </c>
       <c r="D23" t="n">
-        <v>53800</v>
+        <v>-0.7673454635101031</v>
       </c>
       <c r="E23" t="n">
-        <v>53400</v>
+        <v>-0.9712911016523232</v>
       </c>
       <c r="F23" t="n">
-        <v>53400</v>
+        <v>-0.9712911016523232</v>
       </c>
     </row>
     <row r="24">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>53400</v>
+        <v>-0.9712911016523232</v>
       </c>
       <c r="D24" t="n">
-        <v>53800</v>
+        <v>-0.7673454635101031</v>
       </c>
       <c r="E24" t="n">
-        <v>52800</v>
+        <v>-1.277209558865653</v>
       </c>
       <c r="F24" t="n">
-        <v>53600</v>
+        <v>-0.8693182825812132</v>
       </c>
     </row>
     <row r="25">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>53500</v>
+        <v>-0.9203046921167682</v>
       </c>
       <c r="D25" t="n">
-        <v>53700</v>
+        <v>-0.8183318730456582</v>
       </c>
       <c r="E25" t="n">
-        <v>53400</v>
+        <v>-0.9712911016523232</v>
       </c>
       <c r="F25" t="n">
-        <v>53500</v>
+        <v>-0.9203046921167682</v>
       </c>
     </row>
     <row r="26">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>53600</v>
+        <v>-0.8693182825812132</v>
       </c>
       <c r="D26" t="n">
-        <v>54700</v>
+        <v>-0.3084677776901079</v>
       </c>
       <c r="E26" t="n">
-        <v>53600</v>
+        <v>-0.8693182825812132</v>
       </c>
       <c r="F26" t="n">
-        <v>53700</v>
+        <v>-0.8183318730456582</v>
       </c>
     </row>
     <row r="27">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>53800</v>
+        <v>-0.7673454635101031</v>
       </c>
       <c r="D27" t="n">
-        <v>54400</v>
+        <v>-0.461427006296773</v>
       </c>
       <c r="E27" t="n">
-        <v>53600</v>
+        <v>-0.8693182825812132</v>
       </c>
       <c r="F27" t="n">
-        <v>54300</v>
+        <v>-0.512413415832328</v>
       </c>
     </row>
     <row r="28">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>54400</v>
+        <v>-0.461427006296773</v>
       </c>
       <c r="D28" t="n">
-        <v>54700</v>
+        <v>-0.3084677776901079</v>
       </c>
       <c r="E28" t="n">
-        <v>53000</v>
+        <v>-1.175236739794543</v>
       </c>
       <c r="F28" t="n">
-        <v>54000</v>
+        <v>-0.6653726444389931</v>
       </c>
     </row>
     <row r="29">
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>53900</v>
+        <v>-0.7163590539745481</v>
       </c>
       <c r="D29" t="n">
-        <v>54100</v>
+        <v>-0.6143862349034381</v>
       </c>
       <c r="E29" t="n">
-        <v>53500</v>
+        <v>-0.9203046921167682</v>
       </c>
       <c r="F29" t="n">
-        <v>53600</v>
+        <v>-0.8693182825812132</v>
       </c>
     </row>
     <row r="30">
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53600</v>
+        <v>-0.8693182825812132</v>
       </c>
       <c r="D30" t="n">
-        <v>55300</v>
+        <v>-0.002549320476777751</v>
       </c>
       <c r="E30" t="n">
-        <v>52900</v>
+        <v>-1.226223149330098</v>
       </c>
       <c r="F30" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
     </row>
     <row r="31">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
       <c r="D31" t="n">
-        <v>53500</v>
+        <v>-0.9203046921167682</v>
       </c>
       <c r="E31" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
       <c r="F31" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
     </row>
     <row r="32">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
       <c r="D32" t="n">
-        <v>53800</v>
+        <v>-0.7673454635101031</v>
       </c>
       <c r="E32" t="n">
-        <v>52400</v>
+        <v>-1.481155197007874</v>
       </c>
       <c r="F32" t="n">
-        <v>52500</v>
+        <v>-1.430168787472319</v>
       </c>
     </row>
     <row r="33">
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>52400</v>
+        <v>-1.481155197007874</v>
       </c>
       <c r="D33" t="n">
-        <v>53000</v>
+        <v>-1.175236739794543</v>
       </c>
       <c r="E33" t="n">
-        <v>52400</v>
+        <v>-1.481155197007874</v>
       </c>
       <c r="F33" t="n">
-        <v>52800</v>
+        <v>-1.277209558865653</v>
       </c>
     </row>
     <row r="34">
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>52700</v>
+        <v>-1.328195968401209</v>
       </c>
       <c r="D34" t="n">
-        <v>53000</v>
+        <v>-1.175236739794543</v>
       </c>
       <c r="E34" t="n">
-        <v>51400</v>
+        <v>-1.991019292363424</v>
       </c>
       <c r="F34" t="n">
-        <v>53000</v>
+        <v>-1.175236739794543</v>
       </c>
     </row>
     <row r="35">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>53000</v>
+        <v>-1.175236739794543</v>
       </c>
       <c r="D35" t="n">
-        <v>53500</v>
+        <v>-0.9203046921167682</v>
       </c>
       <c r="E35" t="n">
-        <v>52700</v>
+        <v>-1.328195968401209</v>
       </c>
       <c r="F35" t="n">
-        <v>53300</v>
+        <v>-1.022277511187878</v>
       </c>
     </row>
     <row r="36">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>53300</v>
+        <v>-1.022277511187878</v>
       </c>
       <c r="D36" t="n">
-        <v>55300</v>
+        <v>-0.002549320476777751</v>
       </c>
       <c r="E36" t="n">
-        <v>53100</v>
+        <v>-1.124250330258988</v>
       </c>
       <c r="F36" t="n">
-        <v>55000</v>
+        <v>-0.1555085490834428</v>
       </c>
     </row>
     <row r="37">
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>55000</v>
+        <v>-0.1555085490834428</v>
       </c>
       <c r="D37" t="n">
-        <v>56000</v>
+        <v>0.3543555462721074</v>
       </c>
       <c r="E37" t="n">
-        <v>55000</v>
+        <v>-0.1555085490834428</v>
       </c>
       <c r="F37" t="n">
-        <v>55700</v>
+        <v>0.2013963176654424</v>
       </c>
     </row>
     <row r="38">
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>55700</v>
+        <v>0.2013963176654424</v>
       </c>
       <c r="D38" t="n">
-        <v>57900</v>
+        <v>1.323097327447653</v>
       </c>
       <c r="E38" t="n">
-        <v>55700</v>
+        <v>0.2013963176654424</v>
       </c>
       <c r="F38" t="n">
-        <v>57600</v>
+        <v>1.170138098840988</v>
       </c>
     </row>
     <row r="39">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>57600</v>
+        <v>1.170138098840988</v>
       </c>
       <c r="D39" t="n">
-        <v>58200</v>
+        <v>1.476056556054318</v>
       </c>
       <c r="E39" t="n">
-        <v>57400</v>
+        <v>1.068165279769878</v>
       </c>
       <c r="F39" t="n">
-        <v>57700</v>
+        <v>1.221124508376543</v>
       </c>
     </row>
     <row r="40">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>57700</v>
+        <v>1.221124508376543</v>
       </c>
       <c r="D40" t="n">
-        <v>58000</v>
+        <v>1.374083736983208</v>
       </c>
       <c r="E40" t="n">
-        <v>56700</v>
+        <v>0.7112604130209926</v>
       </c>
       <c r="F40" t="n">
-        <v>57400</v>
+        <v>1.068165279769878</v>
       </c>
     </row>
     <row r="41">
@@ -1328,16 +1328,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>57400</v>
+        <v>1.068165279769878</v>
       </c>
       <c r="D41" t="n">
-        <v>57600</v>
+        <v>1.170138098840988</v>
       </c>
       <c r="E41" t="n">
-        <v>56600</v>
+        <v>0.6602740034854376</v>
       </c>
       <c r="F41" t="n">
-        <v>57200</v>
+        <v>0.9661924606987677</v>
       </c>
     </row>
   </sheetData>

--- a/data-dir/kakao-stock-processed2.xlsx
+++ b/data-dir/kakao-stock-processed2.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0994234985943323</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.476056556054318</v>
+        <v>0.8292682926829267</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0994234985943323</v>
+        <v>0.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.323097327447653</v>
+        <v>0.7926829268292677</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.323097327447653</v>
+        <v>0.7926829268292677</v>
       </c>
       <c r="D3" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
       <c r="E3" t="n">
-        <v>1.119151689305433</v>
+        <v>0.7439024390243896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
       <c r="D4" t="n">
-        <v>1.730988603732093</v>
+        <v>0.8902439024390238</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9661924606987677</v>
+        <v>0.7073170731707314</v>
       </c>
       <c r="F4" t="n">
-        <v>1.476056556054318</v>
+        <v>0.8292682926829267</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
       <c r="D5" t="n">
-        <v>1.578029375125428</v>
+        <v>0.8536585365853657</v>
       </c>
       <c r="E5" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
       <c r="F5" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
       <c r="D6" t="n">
-        <v>2.189866289552088</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.272110917912098</v>
+        <v>0.7804878048780486</v>
       </c>
       <c r="F6" t="n">
-        <v>1.476056556054318</v>
+        <v>0.8292682926829267</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.476056556054318</v>
+        <v>0.8292682926829267</v>
       </c>
       <c r="D7" t="n">
-        <v>1.578029375125428</v>
+        <v>0.8536585365853657</v>
       </c>
       <c r="E7" t="n">
-        <v>1.221124508376543</v>
+        <v>0.7682926829268286</v>
       </c>
       <c r="F7" t="n">
-        <v>1.425070146518763</v>
+        <v>0.8170731707317067</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.476056556054318</v>
+        <v>0.8292682926829267</v>
       </c>
       <c r="D8" t="n">
-        <v>2.138879880016534</v>
+        <v>0.98780487804878</v>
       </c>
       <c r="E8" t="n">
-        <v>1.476056556054318</v>
+        <v>0.8292682926829267</v>
       </c>
       <c r="F8" t="n">
-        <v>1.578029375125428</v>
+        <v>0.8536585365853657</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.629015784660983</v>
+        <v>0.8658536585365848</v>
       </c>
       <c r="D9" t="n">
-        <v>1.730988603732093</v>
+        <v>0.8902439024390238</v>
       </c>
       <c r="E9" t="n">
-        <v>1.527042965589873</v>
+        <v>0.8414634146341458</v>
       </c>
       <c r="F9" t="n">
-        <v>1.680002194196538</v>
+        <v>0.8780487804878048</v>
       </c>
     </row>
     <row r="10">
@@ -646,16 +646,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.730988603732093</v>
+        <v>0.8902439024390238</v>
       </c>
       <c r="D10" t="n">
-        <v>1.730988603732093</v>
+        <v>0.8902439024390238</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.002549320476777751</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1504099081298873</v>
+        <v>0.5121951219512191</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1504099081298873</v>
+        <v>0.5121951219512191</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2523827272009974</v>
+        <v>0.5365853658536581</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.002549320476777751</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.002549320476777751</v>
+        <v>0.475609756097561</v>
       </c>
     </row>
     <row r="12">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.002549320476777751</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002549320476777751</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.461427006296773</v>
+        <v>0.3658536585365848</v>
       </c>
     </row>
     <row r="13">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.410440596761218</v>
+        <v>0.3780487804878048</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.359454187225663</v>
+        <v>0.3902439024390238</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6143862349034381</v>
+        <v>0.3292682926829267</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.512413415832328</v>
+        <v>0.3536585365853657</v>
       </c>
     </row>
     <row r="14">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.461427006296773</v>
+        <v>0.3658536585365848</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5073147748787725</v>
+        <v>0.5975609756097562</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.7163590539745481</v>
+        <v>0.3048780487804876</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04843708905877728</v>
+        <v>0.48780487804878</v>
       </c>
     </row>
     <row r="15">
@@ -756,16 +756,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0994234985943323</v>
+        <v>0.5</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3033691367365524</v>
+        <v>0.5487804878048781</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0994234985943323</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2013963176654424</v>
+        <v>0.524390243902439</v>
       </c>
     </row>
     <row r="16">
@@ -778,16 +778,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2523827272009974</v>
+        <v>0.5365853658536581</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2523827272009974</v>
+        <v>0.5365853658536581</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.410440596761218</v>
+        <v>0.3780487804878048</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3084677776901079</v>
+        <v>0.4024390243902438</v>
       </c>
     </row>
     <row r="17">
@@ -800,16 +800,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.3084677776901079</v>
+        <v>0.4024390243902438</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3084677776901079</v>
+        <v>0.4024390243902438</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7163590539745481</v>
+        <v>0.3048780487804876</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.512413415832328</v>
+        <v>0.3536585365853657</v>
       </c>
     </row>
     <row r="18">
@@ -822,16 +822,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.512413415832328</v>
+        <v>0.3536585365853657</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05353573001233278</v>
+        <v>0.463414634146341</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.8183318730456582</v>
+        <v>0.2804878048780486</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.461427006296773</v>
+        <v>0.3658536585365848</v>
       </c>
     </row>
     <row r="19">
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.410440596761218</v>
+        <v>0.3780487804878048</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.410440596761218</v>
+        <v>0.3780487804878048</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6653726444389931</v>
+        <v>0.3170731707317067</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.563399825367883</v>
+        <v>0.3414634146341458</v>
       </c>
     </row>
     <row r="20">
@@ -866,16 +866,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.1555085490834428</v>
+        <v>0.4390243902439019</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2013963176654424</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.6143862349034381</v>
+        <v>0.3292682926829267</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1555085490834428</v>
+        <v>0.4390243902439019</v>
       </c>
     </row>
     <row r="21">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.1555085490834428</v>
+        <v>0.4390243902439019</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.05353573001233278</v>
+        <v>0.463414634146341</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2064949586189979</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1045221395478878</v>
+        <v>0.4512195121951219</v>
       </c>
     </row>
     <row r="22">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.1045221395478878</v>
+        <v>0.4512195121951219</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1045221395478878</v>
+        <v>0.4512195121951219</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.9203046921167682</v>
+        <v>0.2560975609756095</v>
       </c>
     </row>
     <row r="23">
@@ -932,16 +932,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.9203046921167682</v>
+        <v>0.2560975609756095</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.7673454635101031</v>
+        <v>0.2926829268292677</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.9712911016523232</v>
+        <v>0.2439024390243896</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.9712911016523232</v>
+        <v>0.2439024390243896</v>
       </c>
     </row>
     <row r="24">
@@ -954,16 +954,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.9712911016523232</v>
+        <v>0.2439024390243896</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.7673454635101031</v>
+        <v>0.2926829268292677</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.277209558865653</v>
+        <v>0.1707317073170733</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.8693182825812132</v>
+        <v>0.2682926829268286</v>
       </c>
     </row>
     <row r="25">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.9203046921167682</v>
+        <v>0.2560975609756095</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.8183318730456582</v>
+        <v>0.2804878048780486</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.9712911016523232</v>
+        <v>0.2439024390243896</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.9203046921167682</v>
+        <v>0.2560975609756095</v>
       </c>
     </row>
     <row r="26">
@@ -998,16 +998,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.8693182825812132</v>
+        <v>0.2682926829268286</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3084677776901079</v>
+        <v>0.4024390243902438</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.8693182825812132</v>
+        <v>0.2682926829268286</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.8183318730456582</v>
+        <v>0.2804878048780486</v>
       </c>
     </row>
     <row r="27">
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.7673454635101031</v>
+        <v>0.2926829268292677</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.461427006296773</v>
+        <v>0.3658536585365848</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.8693182825812132</v>
+        <v>0.2682926829268286</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.512413415832328</v>
+        <v>0.3536585365853657</v>
       </c>
     </row>
     <row r="28">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.461427006296773</v>
+        <v>0.3658536585365848</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3084677776901079</v>
+        <v>0.4024390243902438</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.175236739794543</v>
+        <v>0.1951219512195124</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6653726444389931</v>
+        <v>0.3170731707317067</v>
       </c>
     </row>
     <row r="29">
@@ -1064,16 +1064,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.7163590539745481</v>
+        <v>0.3048780487804876</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.6143862349034381</v>
+        <v>0.3292682926829267</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.9203046921167682</v>
+        <v>0.2560975609756095</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.8693182825812132</v>
+        <v>0.2682926829268286</v>
       </c>
     </row>
     <row r="30">
@@ -1086,16 +1086,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.8693182825812132</v>
+        <v>0.2682926829268286</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.002549320476777751</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.226223149330098</v>
+        <v>0.1829268292682924</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
     </row>
     <row r="31">
@@ -1108,16 +1108,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.9203046921167682</v>
+        <v>0.2560975609756095</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
     </row>
     <row r="32">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.7673454635101031</v>
+        <v>0.2926829268292677</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.481155197007874</v>
+        <v>0.1219512195121952</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.430168787472319</v>
+        <v>0.1341463414634143</v>
       </c>
     </row>
     <row r="33">
@@ -1152,16 +1152,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-1.481155197007874</v>
+        <v>0.1219512195121952</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.175236739794543</v>
+        <v>0.1951219512195124</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.481155197007874</v>
+        <v>0.1219512195121952</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.277209558865653</v>
+        <v>0.1707317073170733</v>
       </c>
     </row>
     <row r="34">
@@ -1174,16 +1174,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1.328195968401209</v>
+        <v>0.1585365853658534</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.175236739794543</v>
+        <v>0.1951219512195124</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.991019292363424</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.175236739794543</v>
+        <v>0.1951219512195124</v>
       </c>
     </row>
     <row r="35">
@@ -1196,16 +1196,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1.175236739794543</v>
+        <v>0.1951219512195124</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.9203046921167682</v>
+        <v>0.2560975609756095</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.328195968401209</v>
+        <v>0.1585365853658534</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.022277511187878</v>
+        <v>0.2317073170731705</v>
       </c>
     </row>
     <row r="36">
@@ -1218,16 +1218,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-1.022277511187878</v>
+        <v>0.2317073170731705</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.002549320476777751</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.124250330258988</v>
+        <v>0.2073170731707314</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1555085490834428</v>
+        <v>0.4390243902439019</v>
       </c>
     </row>
     <row r="37">
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.1555085490834428</v>
+        <v>0.4390243902439019</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3543555462721074</v>
+        <v>0.5609756097560972</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.1555085490834428</v>
+        <v>0.4390243902439019</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2013963176654424</v>
+        <v>0.524390243902439</v>
       </c>
     </row>
     <row r="38">
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.2013963176654424</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="D38" t="n">
-        <v>1.323097327447653</v>
+        <v>0.7926829268292677</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2013963176654424</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="F38" t="n">
-        <v>1.170138098840988</v>
+        <v>0.7560975609756095</v>
       </c>
     </row>
     <row r="39">
@@ -1284,16 +1284,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.170138098840988</v>
+        <v>0.7560975609756095</v>
       </c>
       <c r="D39" t="n">
-        <v>1.476056556054318</v>
+        <v>0.8292682926829267</v>
       </c>
       <c r="E39" t="n">
-        <v>1.068165279769878</v>
+        <v>0.7317073170731705</v>
       </c>
       <c r="F39" t="n">
-        <v>1.221124508376543</v>
+        <v>0.7682926829268286</v>
       </c>
     </row>
     <row r="40">
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.221124508376543</v>
+        <v>0.7682926829268286</v>
       </c>
       <c r="D40" t="n">
-        <v>1.374083736983208</v>
+        <v>0.8048780487804876</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7112604130209926</v>
+        <v>0.6463414634146343</v>
       </c>
       <c r="F40" t="n">
-        <v>1.068165279769878</v>
+        <v>0.7317073170731705</v>
       </c>
     </row>
     <row r="41">
@@ -1328,16 +1328,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.068165279769878</v>
+        <v>0.7317073170731705</v>
       </c>
       <c r="D41" t="n">
-        <v>1.170138098840988</v>
+        <v>0.7560975609756095</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6602740034854376</v>
+        <v>0.6341463414634143</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9661924606987677</v>
+        <v>0.7073170731707314</v>
       </c>
     </row>
   </sheetData>
